--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elayvered/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0910BD-AF6C-5B46-9A70-29EF2BBD4991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA3D0DA-CA54-A04B-80A7-5BED0A445386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="19380" windowHeight="17440" xr2:uid="{27D07A1A-E00A-A143-B4F4-A24D220A533B}"/>
+    <workbookView xWindow="-3680" yWindow="880" windowWidth="10020" windowHeight="17440" xr2:uid="{27D07A1A-E00A-A143-B4F4-A24D220A533B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
   <si>
     <t>נקודות</t>
   </si>
@@ -78,6 +78,36 @@
   </si>
   <si>
     <t>שם</t>
+  </si>
+  <si>
+    <t>יובל סטרוזר</t>
+  </si>
+  <si>
+    <t>הילס שולויס</t>
+  </si>
+  <si>
+    <t>אן מרש</t>
+  </si>
+  <si>
+    <t>גלי זליג</t>
+  </si>
+  <si>
+    <t>איתי בסטקר</t>
+  </si>
+  <si>
+    <t>יולי יערי תליו</t>
+  </si>
+  <si>
+    <t>יהלי גודר</t>
+  </si>
+  <si>
+    <t>נועם מילר</t>
+  </si>
+  <si>
+    <t>ליאם מלכה</t>
+  </si>
+  <si>
+    <t>עדכון</t>
   </si>
 </sst>
 </file>
@@ -113,8 +143,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,31 +480,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EB3ACD-D007-6E4C-932A-7CED79389DDF}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="1">
+        <v>46036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -481,7 +518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -489,7 +526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -497,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -505,7 +542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -513,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -521,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -529,7 +566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -537,7 +574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -545,7 +582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -553,12 +590,436 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elayvered/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0477BD71-A5B0-7F40-AAA9-E9781479B272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E94799E-50AB-A442-A9B5-E3A5C3CA7F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23080" windowHeight="17440" xr2:uid="{27D07A1A-E00A-A143-B4F4-A24D220A533B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="23">
   <si>
     <t>נקודות</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>נועם מילר</t>
-  </si>
-  <si>
-    <t>ליאם מלכה</t>
   </si>
   <si>
     <t>עדכון</t>
@@ -483,7 +480,7 @@
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -608,7 +605,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -904,7 +901,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -952,7 +949,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B58">
         <v>6</v>

--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elayvered/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E94799E-50AB-A442-A9B5-E3A5C3CA7F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D5530C-30BA-9342-AE66-10C86F09FFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23080" windowHeight="17440" xr2:uid="{27D07A1A-E00A-A143-B4F4-A24D220A533B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="22">
   <si>
     <t>נקודות</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>יובל סטרוזר</t>
-  </si>
-  <si>
-    <t>הילס שולויס</t>
   </si>
   <si>
     <t>אן מרש</t>
@@ -479,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EB3ACD-D007-6E4C-932A-7CED79389DDF}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A49" zoomScale="172" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -645,7 +642,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -693,7 +690,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -709,7 +706,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -749,7 +746,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -757,7 +754,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -765,7 +762,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -789,7 +786,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -805,7 +802,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -829,7 +826,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -837,7 +834,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -861,7 +858,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -869,7 +866,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -941,7 +938,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -965,7 +962,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -973,7 +970,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B61">
         <v>6</v>

--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elayvered/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D5530C-30BA-9342-AE66-10C86F09FFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37024C20-E83B-934F-BB0E-05495EC5DFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23080" windowHeight="17440" xr2:uid="{27D07A1A-E00A-A143-B4F4-A24D220A533B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="10380" windowHeight="17440" xr2:uid="{27D07A1A-E00A-A143-B4F4-A24D220A533B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="29">
   <si>
     <t>נקודות</t>
   </si>
@@ -102,6 +102,27 @@
   </si>
   <si>
     <t>עדכון</t>
+  </si>
+  <si>
+    <t>אביב ואסקז</t>
+  </si>
+  <si>
+    <t>דן פימה</t>
+  </si>
+  <si>
+    <t>עדן ורד מרי</t>
+  </si>
+  <si>
+    <t>רומי הרשקוביץ</t>
+  </si>
+  <si>
+    <t>לידור אלשטיין</t>
+  </si>
+  <si>
+    <t>יער אלביר</t>
+  </si>
+  <si>
+    <t>עמית גורוביץ</t>
   </si>
 </sst>
 </file>
@@ -474,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EB3ACD-D007-6E4C-932A-7CED79389DDF}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A49" zoomScale="172" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="172" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -501,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>14.01</v>
+        <v>15.01</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1014,6 +1035,254 @@
       </c>
       <c r="B66">
         <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>27</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elayvered/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37024C20-E83B-934F-BB0E-05495EC5DFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDC41FB-9162-704E-A320-0940EE950D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="10380" windowHeight="17440" xr2:uid="{27D07A1A-E00A-A143-B4F4-A24D220A533B}"/>
+    <workbookView xWindow="-360" yWindow="760" windowWidth="16980" windowHeight="17440" xr2:uid="{27D07A1A-E00A-A143-B4F4-A24D220A533B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="30">
   <si>
     <t>נקודות</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>עמית גורוביץ</t>
+  </si>
+  <si>
+    <t>הגר אגמון</t>
   </si>
 </sst>
 </file>
@@ -495,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EB3ACD-D007-6E4C-932A-7CED79389DDF}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A139" zoomScale="172" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>15.01</v>
+        <v>18.010000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1283,6 +1286,486 @@
       </c>
       <c r="B97">
         <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>22</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>24</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>27</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>28</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>22</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>29</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>27</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>26</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>18</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>26</v>
+      </c>
+      <c r="B139">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>26</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>16</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>22</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>24</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>27</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>1</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>2</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>22</v>
+      </c>
+      <c r="B157">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elayvered/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDC41FB-9162-704E-A320-0940EE950D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0479487A-93BC-8541-852D-35C82AC92D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-360" yWindow="760" windowWidth="16980" windowHeight="17440" xr2:uid="{27D07A1A-E00A-A143-B4F4-A24D220A533B}"/>
+    <workbookView xWindow="-360" yWindow="760" windowWidth="10000" windowHeight="17440" xr2:uid="{27D07A1A-E00A-A143-B4F4-A24D220A533B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="31">
   <si>
     <t>נקודות</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>הגר אגמון</t>
+  </si>
+  <si>
+    <t xml:space="preserve">או ליהי </t>
   </si>
 </sst>
 </file>
@@ -498,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EB3ACD-D007-6E4C-932A-7CED79389DDF}">
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A139" zoomScale="172" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="172" workbookViewId="0">
+      <selection activeCell="A216" sqref="A216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>18.010000000000002</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1765,6 +1768,473 @@
         <v>22</v>
       </c>
       <c r="B157">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>24</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>2</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163">
+        <v>6</v>
+      </c>
+      <c r="C163" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>23</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>22</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>18</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>17</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>14</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>23</v>
+      </c>
+      <c r="B175">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>11</v>
+      </c>
+      <c r="B176">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>29</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>15</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>2</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>11</v>
+      </c>
+      <c r="B182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>15</v>
+      </c>
+      <c r="B183">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>25</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>22</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>18</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>1</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>27</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>19</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>10</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>25</v>
+      </c>
+      <c r="B194">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>25</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>14</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>6</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>11</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>6</v>
+      </c>
+      <c r="B201">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>14</v>
+      </c>
+      <c r="B202">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>22</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>23</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>16</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>12</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>18</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>2</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>3</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>17</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>1</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>16</v>
+      </c>
+      <c r="B214">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>17</v>
+      </c>
+      <c r="B215">
         <v>6</v>
       </c>
     </row>

--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elayvered/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0479487A-93BC-8541-852D-35C82AC92D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0334652-1AC4-3D4B-8E8A-ABA30B013689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-360" yWindow="760" windowWidth="10000" windowHeight="17440" xr2:uid="{27D07A1A-E00A-A143-B4F4-A24D220A533B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="30">
   <si>
     <t>נקודות</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>הגר אגמון</t>
-  </si>
-  <si>
-    <t xml:space="preserve">או ליהי </t>
   </si>
 </sst>
 </file>
@@ -503,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EB3ACD-D007-6E4C-932A-7CED79389DDF}">
   <dimension ref="A1:C215"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="A216" sqref="A216"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A155" zoomScale="172" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1795,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>5</v>
       </c>
@@ -1803,7 +1800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>2</v>
       </c>
@@ -1811,18 +1808,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B163">
         <v>6</v>
       </c>
-      <c r="C163" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -1830,7 +1824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>23</v>
       </c>
@@ -1838,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>22</v>
       </c>
@@ -1846,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>15</v>
       </c>
@@ -1854,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -1862,7 +1856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>12</v>
       </c>
@@ -1870,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>18</v>
       </c>
@@ -1878,7 +1872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>17</v>
       </c>
@@ -1886,7 +1880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>14</v>
       </c>
@@ -1894,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -1902,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1</v>
       </c>
@@ -1910,7 +1904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>23</v>
       </c>
@@ -1918,7 +1912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>11</v>
       </c>

--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elayvered/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0334652-1AC4-3D4B-8E8A-ABA30B013689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6438901A-0A85-4B4B-9D08-970AAE5A7169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-360" yWindow="760" windowWidth="10000" windowHeight="17440" xr2:uid="{27D07A1A-E00A-A143-B4F4-A24D220A533B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="31">
   <si>
     <t>נקודות</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>הגר אגמון</t>
+  </si>
+  <si>
+    <t>שלו דיין</t>
   </si>
 </sst>
 </file>
@@ -498,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EB3ACD-D007-6E4C-932A-7CED79389DDF}">
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:C235"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A155" zoomScale="172" workbookViewId="0">
-      <selection activeCell="C164" sqref="C164"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A213" zoomScale="172" workbookViewId="0">
+      <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2232,6 +2235,166 @@
         <v>6</v>
       </c>
     </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>29</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>6</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>5</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>14</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>2</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>14</v>
+      </c>
+      <c r="B221">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>2</v>
+      </c>
+      <c r="B222">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>24</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>22</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>27</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>2</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>9</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>17</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>10</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>7</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>30</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>4</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>18</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>7</v>
+      </c>
+      <c r="B234">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>2</v>
+      </c>
+      <c r="B235">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elayvered/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6438901A-0A85-4B4B-9D08-970AAE5A7169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BC47C5-A0E5-3248-81A4-DB532048E087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-360" yWindow="760" windowWidth="10000" windowHeight="17440" xr2:uid="{27D07A1A-E00A-A143-B4F4-A24D220A533B}"/>
   </bookViews>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EB3ACD-D007-6E4C-932A-7CED79389DDF}">
   <dimension ref="A1:C235"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A213" zoomScale="172" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="172" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>21.1</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">

--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elayvered/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BC47C5-A0E5-3248-81A4-DB532048E087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39BF725-726A-F145-9727-6B79CC6AB28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-360" yWindow="760" windowWidth="10000" windowHeight="17440" xr2:uid="{27D07A1A-E00A-A143-B4F4-A24D220A533B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="10000" windowHeight="17440" xr2:uid="{27D07A1A-E00A-A143-B4F4-A24D220A533B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="32">
   <si>
     <t>נקודות</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>שלו דיין</t>
+  </si>
+  <si>
+    <t>ליאם דיין</t>
   </si>
 </sst>
 </file>
@@ -501,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EB3ACD-D007-6E4C-932A-7CED79389DDF}">
-  <dimension ref="A1:C235"/>
+  <dimension ref="A1:C296"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>22.1</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -597,7 +600,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -749,7 +752,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2392,6 +2395,494 @@
         <v>2</v>
       </c>
       <c r="B235">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>22</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>31</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>14</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>19</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>6</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>30</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>30</v>
+      </c>
+      <c r="B242">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>14</v>
+      </c>
+      <c r="B243">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>29</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>23</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>12</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>1</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>11</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>15</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>17</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>5</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>18</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>8</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>9</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>12</v>
+      </c>
+      <c r="B255">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>11</v>
+      </c>
+      <c r="B256">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>25</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>24</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>17</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>9</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>2</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>4</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>14</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>18</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>31</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>31</v>
+      </c>
+      <c r="B266">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>17</v>
+      </c>
+      <c r="B267">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>23</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>29</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>2</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>12</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>11</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>14</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>3</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>30</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>8</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>8</v>
+      </c>
+      <c r="B278">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>2</v>
+      </c>
+      <c r="B279">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>29</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>1</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>5</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>30</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>8</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>30</v>
+      </c>
+      <c r="B285">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>30</v>
+      </c>
+      <c r="B286">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>24</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>25</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>6</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>9</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>31</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>7</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>2</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>4</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>6</v>
+      </c>
+      <c r="B295">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>4</v>
+      </c>
+      <c r="B296">
         <v>6</v>
       </c>
     </row>

--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elayvered/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39BF725-726A-F145-9727-6B79CC6AB28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC793B9-1657-1345-9948-CEA9319CC1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="10000" windowHeight="17440" xr2:uid="{27D07A1A-E00A-A143-B4F4-A24D220A533B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="32">
   <si>
     <t>נקודות</t>
   </si>
@@ -167,9 +167,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EB3ACD-D007-6E4C-932A-7CED79389DDF}">
-  <dimension ref="A1:C296"/>
+  <dimension ref="A1:C317"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A290" zoomScale="172" workbookViewId="0">
+      <selection activeCell="A306" sqref="A306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -530,8 +529,8 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>25.1</v>
+      <c r="C2">
+        <v>26.1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2872,17 +2871,185 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B295">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
+        <v>17</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>6</v>
+      </c>
+      <c r="B297">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
         <v>4</v>
       </c>
-      <c r="B296">
+      <c r="B298">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>22</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>17</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>5</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>2</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>1</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>1</v>
+      </c>
+      <c r="B304">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>17</v>
+      </c>
+      <c r="B305">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>25</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>23</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>16</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>2</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>18</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>9</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>31</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>11</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>8</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>15</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>11</v>
+      </c>
+      <c r="B316">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>16</v>
+      </c>
+      <c r="B317">
         <v>6</v>
       </c>
     </row>

--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elayvered/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC793B9-1657-1345-9948-CEA9319CC1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF999C10-FD63-F84A-BA9B-F74A100D584A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="10000" windowHeight="17440" xr2:uid="{27D07A1A-E00A-A143-B4F4-A24D220A533B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="34">
   <si>
     <t>נקודות</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>ליאם דיין</t>
+  </si>
+  <si>
+    <t>יולי קזמה</t>
+  </si>
+  <si>
+    <t>קרן רינת פביאן</t>
   </si>
 </sst>
 </file>
@@ -503,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EB3ACD-D007-6E4C-932A-7CED79389DDF}">
-  <dimension ref="A1:C317"/>
+  <dimension ref="A1:C356"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A290" zoomScale="172" workbookViewId="0">
-      <selection activeCell="A306" sqref="A306"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A317" zoomScale="172" workbookViewId="0">
+      <selection activeCell="A337" sqref="A337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -530,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>26.1</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3050,6 +3056,318 @@
         <v>16</v>
       </c>
       <c r="B317">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>29</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>1</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>15</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>18</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>4</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>1</v>
+      </c>
+      <c r="B323">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>4</v>
+      </c>
+      <c r="B324">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>25</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>24</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>2</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>5</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>6</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>17</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>3</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>31</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>30</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>9</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>11</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>9</v>
+      </c>
+      <c r="B336">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>3</v>
+      </c>
+      <c r="B337">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>11</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>32</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>1</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>30</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>1</v>
+      </c>
+      <c r="B342">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>1</v>
+      </c>
+      <c r="B343">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>23</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>22</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>4</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>8</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>6</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>5</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>18</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>15</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>33</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>31</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>2</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>4</v>
+      </c>
+      <c r="B355">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>15</v>
+      </c>
+      <c r="B356">
         <v>6</v>
       </c>
     </row>

--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elayvered/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF999C10-FD63-F84A-BA9B-F74A100D584A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F52413-5991-1F49-B681-96F83DAFC196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="10000" windowHeight="17440" xr2:uid="{27D07A1A-E00A-A143-B4F4-A24D220A533B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="35">
   <si>
     <t>נקודות</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>קרן רינת פביאן</t>
+  </si>
+  <si>
+    <t>אייל קוטלר</t>
   </si>
 </sst>
 </file>
@@ -509,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EB3ACD-D007-6E4C-932A-7CED79389DDF}">
-  <dimension ref="A1:C356"/>
+  <dimension ref="A1:C419"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A317" zoomScale="172" workbookViewId="0">
-      <selection activeCell="A337" sqref="A337"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A356" zoomScale="172" workbookViewId="0">
+      <selection activeCell="A377" sqref="A377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3371,6 +3374,510 @@
         <v>6</v>
       </c>
     </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>29</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>4</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>9</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>6</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>32</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>6</v>
+      </c>
+      <c r="B362">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>4</v>
+      </c>
+      <c r="B363">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>22</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>23</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>16</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>5</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>11</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>31</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>3</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>18</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>19</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>7</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>30</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>19</v>
+      </c>
+      <c r="B375">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>16</v>
+      </c>
+      <c r="B376">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>25</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>1</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>6</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>9</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>33</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>25</v>
+      </c>
+      <c r="B382">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>6</v>
+      </c>
+      <c r="B383">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>23</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>24</v>
+      </c>
+      <c r="B385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>2</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>19</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>8</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>32</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>30</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>3</v>
+      </c>
+      <c r="B391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>34</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>4</v>
+      </c>
+      <c r="B393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>18</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>8</v>
+      </c>
+      <c r="B395">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>19</v>
+      </c>
+      <c r="B396">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>22</v>
+      </c>
+      <c r="B397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>24</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>11</v>
+      </c>
+      <c r="B399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>4</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>9</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>2</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>17</v>
+      </c>
+      <c r="B403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>8</v>
+      </c>
+      <c r="B404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>1</v>
+      </c>
+      <c r="B405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>11</v>
+      </c>
+      <c r="B406">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>17</v>
+      </c>
+      <c r="B407">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>29</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>25</v>
+      </c>
+      <c r="B409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>15</v>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>3</v>
+      </c>
+      <c r="B411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>2</v>
+      </c>
+      <c r="B412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>32</v>
+      </c>
+      <c r="B413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>30</v>
+      </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>33</v>
+      </c>
+      <c r="B415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>5</v>
+      </c>
+      <c r="B416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>6</v>
+      </c>
+      <c r="B417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>29</v>
+      </c>
+      <c r="B418">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>3</v>
+      </c>
+      <c r="B419">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elayvered/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F52413-5991-1F49-B681-96F83DAFC196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951CFEFC-C686-6A47-9A73-B2D46159C045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="10000" windowHeight="17440" xr2:uid="{27D07A1A-E00A-A143-B4F4-A24D220A533B}"/>
   </bookViews>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EB3ACD-D007-6E4C-932A-7CED79389DDF}">
   <dimension ref="A1:C419"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A356" zoomScale="172" workbookViewId="0">
-      <selection activeCell="A377" sqref="A377"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="172" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>28.1</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">

--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elayvered/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951CFEFC-C686-6A47-9A73-B2D46159C045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18964FBE-4B1B-F047-9131-148FC838287C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="10000" windowHeight="17440" xr2:uid="{27D07A1A-E00A-A143-B4F4-A24D220A533B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="35">
   <si>
     <t>נקודות</t>
   </si>
@@ -176,8 +176,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EB3ACD-D007-6E4C-932A-7CED79389DDF}">
-  <dimension ref="A1:C419"/>
+  <dimension ref="A1:C438"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A419" zoomScale="172" workbookViewId="0">
+      <selection activeCell="C423" sqref="C423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,8 +539,8 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>31.1</v>
+      <c r="C2" s="1">
+        <v>46054</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3875,6 +3876,158 @@
         <v>3</v>
       </c>
       <c r="B419">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>29</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>6</v>
+      </c>
+      <c r="B421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>3</v>
+      </c>
+      <c r="B422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>1</v>
+      </c>
+      <c r="B423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>30</v>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>3</v>
+      </c>
+      <c r="B425">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>30</v>
+      </c>
+      <c r="B426">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>26</v>
+      </c>
+      <c r="B427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>25</v>
+      </c>
+      <c r="B428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>2</v>
+      </c>
+      <c r="B429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>4</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>33</v>
+      </c>
+      <c r="B431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>9</v>
+      </c>
+      <c r="B432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>5</v>
+      </c>
+      <c r="B433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>8</v>
+      </c>
+      <c r="B434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>31</v>
+      </c>
+      <c r="B435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>17</v>
+      </c>
+      <c r="B436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>5</v>
+      </c>
+      <c r="B437">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>8</v>
+      </c>
+      <c r="B438">
         <v>6</v>
       </c>
     </row>

--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elayvered/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18964FBE-4B1B-F047-9131-148FC838287C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED64F5FE-5797-A149-85CA-511CA208ED8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="10000" windowHeight="17440" xr2:uid="{27D07A1A-E00A-A143-B4F4-A24D220A533B}"/>
   </bookViews>
@@ -178,7 +178,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EB3ACD-D007-6E4C-932A-7CED79389DDF}">
   <dimension ref="A1:C438"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A419" zoomScale="172" workbookViewId="0">
-      <selection activeCell="C423" sqref="C423"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="172" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -540,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>46054</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">

--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elayvered/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED64F5FE-5797-A149-85CA-511CA208ED8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EDE18C-A748-CA4F-B074-06DD5DB63BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="10000" windowHeight="17440" xr2:uid="{27D07A1A-E00A-A143-B4F4-A24D220A533B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="35">
   <si>
     <t>נקודות</t>
   </si>
@@ -176,9 +176,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EB3ACD-D007-6E4C-932A-7CED79389DDF}">
-  <dimension ref="A1:C438"/>
+  <dimension ref="A1:C476"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A458" zoomScale="172" workbookViewId="0">
+      <selection activeCell="A477" sqref="A477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,8 +538,8 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>1.2</v>
+      <c r="C2">
+        <v>3.2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4028,6 +4027,310 @@
         <v>8</v>
       </c>
       <c r="B438">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>25</v>
+      </c>
+      <c r="B439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>2</v>
+      </c>
+      <c r="B440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>4</v>
+      </c>
+      <c r="B441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>5</v>
+      </c>
+      <c r="B442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>8</v>
+      </c>
+      <c r="B443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>5</v>
+      </c>
+      <c r="B444">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>8</v>
+      </c>
+      <c r="B445">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>24</v>
+      </c>
+      <c r="B446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>22</v>
+      </c>
+      <c r="B447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>9</v>
+      </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>19</v>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>31</v>
+      </c>
+      <c r="B450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>1</v>
+      </c>
+      <c r="B451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>15</v>
+      </c>
+      <c r="B452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>32</v>
+      </c>
+      <c r="B453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>17</v>
+      </c>
+      <c r="B454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>3</v>
+      </c>
+      <c r="B455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>11</v>
+      </c>
+      <c r="B456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>9</v>
+      </c>
+      <c r="B457">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>24</v>
+      </c>
+      <c r="B458">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>22</v>
+      </c>
+      <c r="B459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>11</v>
+      </c>
+      <c r="B460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>1</v>
+      </c>
+      <c r="B461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>6</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>30</v>
+      </c>
+      <c r="B463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>22</v>
+      </c>
+      <c r="B464">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>11</v>
+      </c>
+      <c r="B465">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>25</v>
+      </c>
+      <c r="B466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>24</v>
+      </c>
+      <c r="B467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>3</v>
+      </c>
+      <c r="B468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>9</v>
+      </c>
+      <c r="B469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>31</v>
+      </c>
+      <c r="B470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>27</v>
+      </c>
+      <c r="B471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>32</v>
+      </c>
+      <c r="B472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>4</v>
+      </c>
+      <c r="B473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>5</v>
+      </c>
+      <c r="B474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>31</v>
+      </c>
+      <c r="B475">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>25</v>
+      </c>
+      <c r="B476">
         <v>6</v>
       </c>
     </row>

--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elayvered/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EDE18C-A748-CA4F-B074-06DD5DB63BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF87B0D8-693F-F849-9D58-9A9DBBCF1EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="10000" windowHeight="17440" xr2:uid="{27D07A1A-E00A-A143-B4F4-A24D220A533B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="35">
   <si>
     <t>נקודות</t>
   </si>
@@ -512,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EB3ACD-D007-6E4C-932A-7CED79389DDF}">
-  <dimension ref="A1:C476"/>
+  <dimension ref="A1:C495"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A458" zoomScale="172" workbookViewId="0">
-      <selection activeCell="A477" sqref="A477"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="172" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4331,6 +4331,158 @@
         <v>25</v>
       </c>
       <c r="B476">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>22</v>
+      </c>
+      <c r="B477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>4</v>
+      </c>
+      <c r="B478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>2</v>
+      </c>
+      <c r="B479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>30</v>
+      </c>
+      <c r="B480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>5</v>
+      </c>
+      <c r="B481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>30</v>
+      </c>
+      <c r="B482">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>5</v>
+      </c>
+      <c r="B483">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>29</v>
+      </c>
+      <c r="B484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>23</v>
+      </c>
+      <c r="B485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>2</v>
+      </c>
+      <c r="B486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>9</v>
+      </c>
+      <c r="B487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>17</v>
+      </c>
+      <c r="B488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>33</v>
+      </c>
+      <c r="B489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>32</v>
+      </c>
+      <c r="B490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>11</v>
+      </c>
+      <c r="B491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>15</v>
+      </c>
+      <c r="B492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>6</v>
+      </c>
+      <c r="B493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>11</v>
+      </c>
+      <c r="B494">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>29</v>
+      </c>
+      <c r="B495">
         <v>6</v>
       </c>
     </row>

--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elayvered/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF87B0D8-693F-F849-9D58-9A9DBBCF1EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FEF7C1-B242-D84D-88BD-D469DCF49AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="10000" windowHeight="17440" xr2:uid="{27D07A1A-E00A-A143-B4F4-A24D220A533B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="35">
   <si>
     <t>נקודות</t>
   </si>
@@ -512,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EB3ACD-D007-6E4C-932A-7CED79389DDF}">
-  <dimension ref="A1:C495"/>
+  <dimension ref="A1:C514"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4483,6 +4483,158 @@
         <v>29</v>
       </c>
       <c r="B495">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>15</v>
+      </c>
+      <c r="B496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>6</v>
+      </c>
+      <c r="B497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>11</v>
+      </c>
+      <c r="B498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>5</v>
+      </c>
+      <c r="B499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>5</v>
+      </c>
+      <c r="B500">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>5</v>
+      </c>
+      <c r="B501">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>25</v>
+      </c>
+      <c r="B502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>22</v>
+      </c>
+      <c r="B503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>9</v>
+      </c>
+      <c r="B504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>33</v>
+      </c>
+      <c r="B505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>4</v>
+      </c>
+      <c r="B506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>31</v>
+      </c>
+      <c r="B507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>7</v>
+      </c>
+      <c r="B508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>3</v>
+      </c>
+      <c r="B509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>32</v>
+      </c>
+      <c r="B510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>30</v>
+      </c>
+      <c r="B511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>2</v>
+      </c>
+      <c r="B512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>3</v>
+      </c>
+      <c r="B513">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>3</v>
+      </c>
+      <c r="B514">
         <v>6</v>
       </c>
     </row>

--- a/ranking.xlsx
+++ b/ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elayvered/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FEF7C1-B242-D84D-88BD-D469DCF49AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42745659-DED1-8B47-BC10-AE4FC21C72C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="10000" windowHeight="17440" xr2:uid="{27D07A1A-E00A-A143-B4F4-A24D220A533B}"/>
   </bookViews>
@@ -515,10 +515,13 @@
   <dimension ref="A1:C514"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -595,7 +598,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4624,7 +4627,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B513">
         <v>6</v>
